--- a/va_facility_data_2025-02-20/Williamsport VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Williamsport%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Williamsport VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Williamsport%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8c36e5d25c504da09e1bf8e088347455"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9c827473328d41f4b7edf57a9e67689f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0a8919ba34a143068f916b731c161a87"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8d6a7293bf39431698c691fd369f72b6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R16983b61985040e7aa93de473c661c05"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R59640edcbc104963b575999d0a17fd1d"/>
   </x:sheets>
 </x:workbook>
 </file>
